--- a/quality_review.xlsx
+++ b/quality_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A2301A-7455-466C-A670-BFA1232BBDEC}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11184E37-437E-4CB3-9E67-9303757942F1}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,9 +436,6 @@
     <t>LI_120</t>
   </si>
   <si>
-    <t>self-rated pain for both groups using IASP definition - 3 months or more. But no exclusions? Which is maybe acceptable for the nature of study (will get penalised later for confounds uncontrolled)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cluster sampling from rural elderly population and selection of 3 urban health centres. </t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>medication not controlled for. Depression and anxiety controlled for by exclusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self-rated pain for both groups using IASP definition - 3 months or more. But no exclusions? </t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1348,10 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U55" sqref="U55"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1383,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1410,19 +1410,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>8</v>
@@ -1434,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>11</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>21</v>
@@ -1499,10 +1499,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>21</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>21</v>
@@ -1564,16 +1564,16 @@
         <v>20</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>16</v>
@@ -1605,7 +1605,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>21</v>
@@ -1625,16 +1625,16 @@
         <v>20</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>21</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>36</v>
@@ -1695,13 +1695,13 @@
         <v>21</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>16</v>
@@ -1731,16 +1731,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>21</v>
@@ -1750,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>21</v>
@@ -1759,16 +1759,16 @@
         <v>42</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>16</v>
@@ -1800,10 +1800,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>21</v>
@@ -1822,10 +1822,10 @@
         <v>46</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>34</v>
@@ -1863,13 +1863,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="6" t="s">
@@ -1885,10 +1885,10 @@
         <v>51</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>34</v>
@@ -1955,7 +1955,7 @@
         <v>21</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>16</v>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>21</v>
@@ -2022,13 +2022,13 @@
         <v>21</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>16</v>
@@ -2046,7 +2046,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>34</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>21</v>
@@ -2082,16 +2082,16 @@
         <v>20</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>16</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>71</v>
@@ -2145,16 +2145,16 @@
         <v>20</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V12" s="6" t="s">
         <v>34</v>
@@ -2180,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>21</v>
@@ -2215,7 +2215,7 @@
         <v>21</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>21</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>80</v>
@@ -2275,10 +2275,10 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>16</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>85</v>
@@ -2345,13 +2345,13 @@
         <v>21</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>16</v>
@@ -2363,13 +2363,13 @@
         <v>87</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
@@ -2388,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>21</v>
@@ -2408,13 +2408,13 @@
         <v>21</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>16</v>
@@ -2426,13 +2426,13 @@
         <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>34</v>
@@ -2451,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>21</v>
@@ -2471,13 +2471,13 @@
         <v>21</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>16</v>
@@ -2495,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>34</v>
@@ -2536,13 +2536,13 @@
         <v>21</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>16</v>
@@ -2578,36 +2578,36 @@
         <v>21</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="T19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V19" s="6" t="s">
         <v>21</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>21</v>
@@ -2663,16 +2663,16 @@
         <v>20</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
@@ -2702,11 +2702,11 @@
         <v>21</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>21</v>
@@ -2724,10 +2724,10 @@
         <v>20</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>16</v>
@@ -2767,16 +2767,16 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>16</v>
@@ -2789,10 +2789,10 @@
         <v>111</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>16</v>
@@ -2856,16 +2856,16 @@
         <v>118</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>16</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>21</v>
@@ -2919,10 +2919,10 @@
         <v>20</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>16</v>
@@ -2964,17 +2964,17 @@
         <v>21</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>127</v>
@@ -2986,10 +2986,10 @@
         <v>128</v>
       </c>
       <c r="R25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>16</v>
@@ -3004,7 +3004,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>131</v>
       </c>
@@ -3012,59 +3012,59 @@
         <v>131</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="I26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="R26" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>16</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="27" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>21</v>
@@ -3101,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>21</v>
@@ -3111,23 +3111,23 @@
         <v>16</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>16</v>
@@ -3136,22 +3136,22 @@
     </row>
     <row r="28" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -3164,7 +3164,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>21</v>
@@ -3174,23 +3174,23 @@
         <v>16</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>16</v>
@@ -3199,22 +3199,22 @@
     </row>
     <row r="29" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
@@ -3229,17 +3229,17 @@
         <v>16</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="6" t="s">
@@ -3249,13 +3249,13 @@
         <v>21</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>16</v>
@@ -3264,22 +3264,22 @@
     </row>
     <row r="30" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -3297,10 +3297,10 @@
         <v>21</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>16</v>
@@ -3312,45 +3312,45 @@
         <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="12" t="s">
+      <c r="V30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>21</v>
@@ -3368,10 +3368,10 @@
         <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>16</v>
@@ -3383,45 +3383,45 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="12" t="s">
+      <c r="V31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>21</v>
@@ -3439,10 +3439,10 @@
         <v>21</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>16</v>
@@ -3454,45 +3454,45 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U32" s="12" t="s">
+      <c r="V32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>21</v>
@@ -3510,10 +3510,10 @@
         <v>21</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>16</v>
@@ -3525,45 +3525,45 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="V33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
@@ -3581,10 +3581,10 @@
         <v>21</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>16</v>
@@ -3596,45 +3596,45 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U34" s="12" t="s">
+      <c r="V34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>21</v>
@@ -3652,10 +3652,10 @@
         <v>21</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>16</v>
@@ -3667,51 +3667,51 @@
         <v>21</v>
       </c>
       <c r="Q35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="12" t="s">
+      <c r="V35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>16</v>
@@ -3734,19 +3734,19 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>16</v>
@@ -3755,22 +3755,22 @@
     </row>
     <row r="37" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>21</v>
@@ -3799,51 +3799,51 @@
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="G38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>16</v>
@@ -3866,55 +3866,55 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T38" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U38" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="V38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>21</v>
@@ -3931,19 +3931,19 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>16</v>
@@ -3952,22 +3952,22 @@
     </row>
     <row r="40" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>21</v>
@@ -3992,49 +3992,49 @@
         <v>16</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W40" s="18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
@@ -4049,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>21</v>
@@ -4059,23 +4059,23 @@
         <v>16</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T41" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>16</v>
@@ -4084,28 +4084,28 @@
     </row>
     <row r="42" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>16</v>
@@ -4128,19 +4128,19 @@
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>16</v>
@@ -4149,22 +4149,22 @@
     </row>
     <row r="43" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>21</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>21</v>
@@ -4187,23 +4187,23 @@
         <v>16</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>16</v>
@@ -4212,22 +4212,22 @@
     </row>
     <row r="44" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>21</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>21</v>
@@ -4250,23 +4250,23 @@
         <v>16</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>16</v>
@@ -4275,22 +4275,22 @@
     </row>
     <row r="45" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>21</v>
@@ -4308,34 +4308,34 @@
         <v>21</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="6" t="s">
+      <c r="R45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>16</v>
@@ -4344,32 +4344,32 @@
     </row>
     <row r="46" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>21</v>
@@ -4382,23 +4382,23 @@
         <v>16</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T46" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>16</v>
@@ -4407,100 +4407,100 @@
     </row>
     <row r="47" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="R47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T47" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U47" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="V47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="E48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="I48" s="8" t="s">
         <v>21</v>
       </c>
@@ -4508,17 +4508,17 @@
         <v>16</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="6" t="s">
@@ -4528,13 +4528,13 @@
         <v>21</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T48" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>16</v>
@@ -4543,29 +4543,29 @@
     </row>
     <row r="49" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="I49" s="8" t="s">
         <v>21</v>
       </c>
@@ -4573,17 +4573,17 @@
         <v>16</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="6" t="s">
@@ -4593,13 +4593,13 @@
         <v>21</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T49" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>16</v>
@@ -4608,22 +4608,22 @@
     </row>
     <row r="50" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>21</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O50" s="6" t="s">
         <v>80</v>
@@ -4651,16 +4651,16 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S50" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S50" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="T50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>16</v>
@@ -4669,28 +4669,28 @@
     </row>
     <row r="51" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="G51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>21</v>
@@ -4706,28 +4706,28 @@
       </c>
       <c r="M51" s="13"/>
       <c r="N51" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="6" t="s">
+      <c r="R51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U51" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>16</v>
@@ -4736,22 +4736,22 @@
     </row>
     <row r="52" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>16</v>
@@ -4759,10 +4759,10 @@
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
       <c r="J52" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>21</v>
@@ -4776,51 +4776,51 @@
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="T52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>34</v>
       </c>
       <c r="W52" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="G53" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6" t="s">
@@ -4833,7 +4833,7 @@
         <v>21</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>16</v>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T53" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>16</v>
@@ -4864,28 +4864,28 @@
     </row>
     <row r="54" spans="1:23" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>281</v>
-      </c>
       <c r="G54" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="6" t="s">
@@ -4898,7 +4898,7 @@
         <v>21</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>16</v>
@@ -4906,19 +4906,19 @@
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
       <c r="Q54" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S54" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S54" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="T54" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="V54" s="21" t="s">
         <v>16</v>
@@ -4927,55 +4927,55 @@
     </row>
     <row r="55" spans="1:23" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="R55" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>16</v>

--- a/quality_review.xlsx
+++ b/quality_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11184E37-437E-4CB3-9E67-9303757942F1}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25E3237-F1D2-41B9-B9C0-A49DFBC9D196}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="317">
   <si>
     <t>study_id</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>All reported</t>
-  </si>
-  <si>
-    <t>Education significantly different and not controlled for</t>
   </si>
   <si>
     <t>BOR37</t>
@@ -381,21 +378,6 @@
     <t>screened below ACE 88 - for controls only</t>
   </si>
   <si>
-    <t>HAN103</t>
-  </si>
-  <si>
-    <t>only 1 month minimum criteria for pain group - patients may not all meet chronic criteria</t>
-  </si>
-  <si>
-    <t>Subjects from named project,demographics present</t>
-  </si>
-  <si>
-    <t>no pain-related data - and 1 month minimum also a discrepancy</t>
-  </si>
-  <si>
-    <t>(Slightly) more medication use in pain group</t>
-  </si>
-  <si>
     <t>KAR113</t>
   </si>
   <si>
@@ -908,6 +890,105 @@
   </si>
   <si>
     <t xml:space="preserve">self-rated pain for both groups using IASP definition - 3 months or more. But no exclusions? </t>
+  </si>
+  <si>
+    <t>Education significantly different and not controlled for. Also medication controlled for - but no info about subgroup</t>
+  </si>
+  <si>
+    <t>OJE134-NP-B</t>
+  </si>
+  <si>
+    <t>OJE134-MSK-B</t>
+  </si>
+  <si>
+    <t>OJE134-FM-B</t>
+  </si>
+  <si>
+    <t>HAM996</t>
+  </si>
+  <si>
+    <t>details about recruitment process for all subjects, demographics provided for pain group and informed matched (age, education, socioeconomic and gender) control group - but no data actually provided</t>
+  </si>
+  <si>
+    <t>BAP992</t>
+  </si>
+  <si>
+    <t>good information about provenance of both  groups and exclusions</t>
+  </si>
+  <si>
+    <t>Diagnosis made with ACR. NB does not involve duration.</t>
+  </si>
+  <si>
+    <t>Descripion of test administrators, experience and role</t>
+  </si>
+  <si>
+    <t>Descripion of test administrators, experience and role as well as blinding</t>
+  </si>
+  <si>
+    <t>meidcation not controlled for (inc glucocortisoids), depression somewhat different</t>
+  </si>
+  <si>
+    <t>VIT993-A</t>
+  </si>
+  <si>
+    <t>VIT993-B</t>
+  </si>
+  <si>
+    <t>VIT993</t>
+  </si>
+  <si>
+    <t>good information provided including on other confounds</t>
+  </si>
+  <si>
+    <t>Descripion of test administrators and where in process test occurred</t>
+  </si>
+  <si>
+    <t>PET994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All cognitive assessments were made by structured questionnaires, performed by experienced psychiatrist blinded to each subject’s clinical status. </t>
+  </si>
+  <si>
+    <t>VAS taken and reported</t>
+  </si>
+  <si>
+    <t>Distinction between two patient groups based on clinical criteria, and account of control group along with exclusion criteria</t>
+  </si>
+  <si>
+    <t>PET994-A</t>
+  </si>
+  <si>
+    <t>PET994-B</t>
+  </si>
+  <si>
+    <t>GUZ995</t>
+  </si>
+  <si>
+    <t>KOT997</t>
+  </si>
+  <si>
+    <t>Describes MMSE as a 'self-administerd scale'? No indication of who was involved in administration</t>
+  </si>
+  <si>
+    <t>no information about control sample and exclusions</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Diagnosis made with ACR. Note a minimum disease duration (5 years) was specified</t>
+  </si>
+  <si>
+    <t>criteria for control group provided including  exclusion criteria. However, do not provide any demographic data beyond age (when table has sections for diabetes, hypertension etc)</t>
+  </si>
+  <si>
+    <t>describe where test completed but nothing about administration</t>
+  </si>
+  <si>
+    <t>PET991</t>
+  </si>
+  <si>
+    <t>Note that history of depressive symptoms excluded but no information about measures of current mood and how comprehensive that was</t>
   </si>
 </sst>
 </file>
@@ -942,26 +1023,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF202637"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1028,8 +1129,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C9E12-B6CA-44B7-9AF0-AE28A5304A9B}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1383,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1410,19 +1511,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>8</v>
@@ -1434,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>11</v>
@@ -1475,11 +1576,11 @@
         <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>21</v>
@@ -1499,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>21</v>
@@ -1510,7 +1611,7 @@
       <c r="U2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="8" t="s">
@@ -1544,7 +1645,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>21</v>
@@ -1564,16 +1665,16 @@
         <v>20</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>16</v>
@@ -1605,7 +1706,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>21</v>
@@ -1625,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>21</v>
@@ -1680,7 +1781,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>36</v>
@@ -1695,13 +1796,13 @@
         <v>21</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>16</v>
@@ -1731,16 +1832,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>21</v>
@@ -1750,25 +1851,25 @@
         <v>16</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>16</v>
@@ -1777,22 +1878,22 @@
     </row>
     <row r="7" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>16</v>
@@ -1800,10 +1901,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>21</v>
@@ -1819,19 +1920,19 @@
         <v>21</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>16</v>
@@ -1840,22 +1941,22 @@
     </row>
     <row r="8" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>16</v>
@@ -1863,13 +1964,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="6" t="s">
@@ -1882,45 +1983,45 @@
         <v>21</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>16</v>
@@ -1949,19 +2050,19 @@
         <v>16</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>16</v>
@@ -1970,29 +2071,29 @@
     </row>
     <row r="10" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>21</v>
@@ -2010,25 +2111,25 @@
         <v>16</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>16</v>
@@ -2037,32 +2138,32 @@
     </row>
     <row r="11" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>21</v>
@@ -2082,16 +2183,16 @@
         <v>20</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>16</v>
@@ -2100,28 +2201,28 @@
     </row>
     <row r="12" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="6" t="s">
@@ -2135,58 +2236,58 @@
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="V12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>21</v>
@@ -2195,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>21</v>
@@ -2205,23 +2306,23 @@
         <v>16</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>16</v>
@@ -2230,28 +2331,28 @@
     </row>
     <row r="14" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>21</v>
@@ -2267,24 +2368,24 @@
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>16</v>
@@ -2293,28 +2394,28 @@
     </row>
     <row r="15" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>21</v>
@@ -2330,28 +2431,28 @@
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>16</v>
@@ -2360,22 +2461,22 @@
     </row>
     <row r="16" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>16</v>
@@ -2388,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>21</v>
@@ -2398,23 +2499,23 @@
         <v>16</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>16</v>
@@ -2423,22 +2524,22 @@
     </row>
     <row r="17" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>16</v>
@@ -2451,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>21</v>
@@ -2461,23 +2562,23 @@
         <v>16</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>16</v>
@@ -2486,28 +2587,28 @@
     </row>
     <row r="18" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>21</v>
@@ -2526,23 +2627,23 @@
         <v>16</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>16</v>
@@ -2551,99 +2652,99 @@
     </row>
     <row r="19" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>21</v>
@@ -2656,23 +2757,23 @@
         <v>16</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>16</v>
@@ -2681,32 +2782,32 @@
     </row>
     <row r="21" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>21</v>
@@ -2717,23 +2818,23 @@
       <c r="M21" s="13"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>16</v>
@@ -2742,41 +2843,41 @@
     </row>
     <row r="22" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>16</v>
@@ -2786,57 +2887,55 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="12" t="s">
+      <c r="V22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I23" s="8"/>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>21</v>
@@ -2849,80 +2948,84 @@
         <v>16</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="12"/>
-    </row>
-    <row r="24" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q24" s="6" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>16</v>
@@ -2931,22 +3034,24 @@
         <v>123</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
@@ -2958,64 +3063,62 @@
         <v>21</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
@@ -3027,44 +3130,40 @@
         <v>21</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I26" s="8"/>
       <c r="J26" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="R26" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>16</v>
@@ -3073,35 +3172,35 @@
     </row>
     <row r="27" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>21</v>
@@ -3111,23 +3210,23 @@
         <v>16</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>16</v>
@@ -3136,10 +3235,10 @@
     </row>
     <row r="28" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
@@ -3148,7 +3247,7 @@
         <v>137</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>138</v>
@@ -3157,135 +3256,143 @@
         <v>21</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>139</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="V28" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="R29" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="12" t="s">
+      <c r="V29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="V29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29" s="12"/>
     </row>
     <row r="30" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>16</v>
@@ -3297,10 +3404,10 @@
         <v>21</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>16</v>
@@ -3312,51 +3419,51 @@
         <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>16</v>
@@ -3368,10 +3475,10 @@
         <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>16</v>
@@ -3383,51 +3490,51 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>16</v>
@@ -3439,10 +3546,10 @@
         <v>21</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>16</v>
@@ -3454,51 +3561,51 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>16</v>
@@ -3510,10 +3617,10 @@
         <v>21</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>16</v>
@@ -3525,51 +3632,51 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>16</v>
@@ -3581,10 +3688,10 @@
         <v>21</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>16</v>
@@ -3596,51 +3703,51 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>16</v>
@@ -3651,67 +3758,61 @@
       <c r="K35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>237</v>
-      </c>
+      <c r="L35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="13"/>
       <c r="N35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P35" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="P35" s="8"/>
       <c r="Q35" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>16</v>
@@ -3734,49 +3835,51 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W36" s="12"/>
-    </row>
-    <row r="37" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>16</v>
@@ -3799,57 +3902,55 @@
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U37" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="V37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="18" t="s">
-        <v>152</v>
+      <c r="W37" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>21</v>
@@ -3862,59 +3963,59 @@
         <v>16</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W38" s="12"/>
     </row>
     <row r="39" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="8"/>
       <c r="J39" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>21</v>
@@ -3927,30 +4028,32 @@
         <v>16</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W39" s="12"/>
-    </row>
-    <row r="40" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W39" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>171</v>
       </c>
@@ -3958,13 +4061,13 @@
         <v>171</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>173</v>
@@ -3973,16 +4076,16 @@
         <v>21</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>21</v>
@@ -3996,60 +4099,58 @@
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="R40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="V40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>21</v>
@@ -4059,59 +4160,57 @@
         <v>16</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="6" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U41" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="V41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="12"/>
-    </row>
-    <row r="42" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>21</v>
@@ -4124,23 +4223,23 @@
         <v>16</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>16</v>
@@ -4149,32 +4248,32 @@
     </row>
     <row r="43" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>21</v>
@@ -4187,35 +4286,35 @@
         <v>16</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="V43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W43" s="12"/>
     </row>
-    <row r="44" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>16</v>
@@ -4233,47 +4332,53 @@
         <v>21</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J44" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="13"/>
+      <c r="L44" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="N44" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="P44" s="8"/>
+      <c r="P44" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q44" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="T44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W44" s="12"/>
     </row>
-    <row r="45" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>193</v>
       </c>
@@ -4293,49 +4398,43 @@
         <v>195</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="I45" s="8"/>
       <c r="J45" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>247</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M45" s="13"/>
       <c r="N45" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="O45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>16</v>
@@ -4344,162 +4443,164 @@
     </row>
     <row r="46" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="P46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="R46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U46" s="12" t="s">
+      <c r="V46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="V46" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="12"/>
-    </row>
-    <row r="47" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>248</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="13"/>
       <c r="N47" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P47" s="8"/>
       <c r="Q47" s="6" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="12" t="s">
-        <v>208</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W47" s="12"/>
     </row>
     <row r="48" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>21</v>
@@ -4508,48 +4609,48 @@
         <v>16</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T48" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>210</v>
@@ -4564,42 +4665,38 @@
         <v>21</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I49" s="8"/>
       <c r="J49" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="P49" s="8"/>
-      <c r="Q49" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>16</v>
@@ -4608,30 +4705,32 @@
     </row>
     <row r="50" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="G50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J50" s="6" t="s">
         <v>16</v>
       </c>
@@ -4643,18 +4742,22 @@
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="R50" s="6" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T50" s="12" t="s">
         <v>16</v>
@@ -4678,306 +4781,704 @@
         <v>16</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="G51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="L51" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M51" s="13"/>
       <c r="N51" s="6" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="O51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="6" t="s">
+      <c r="V51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="R51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U51" s="12" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="V51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W51" s="12"/>
-    </row>
-    <row r="52" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="K52" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="13"/>
       <c r="N52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U52" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="R52" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="T52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="12" t="s">
-        <v>228</v>
-      </c>
       <c r="V52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="W52" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="K53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S53" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="T53" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U53" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W53" s="20"/>
+    </row>
+    <row r="54" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="14" t="s">
+      <c r="F55" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="T53" s="12" t="s">
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U53" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="V53" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W53" s="12"/>
-    </row>
-    <row r="54" spans="1:23" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="6" t="s">
+      <c r="T62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S54" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="T54" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="V54" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="W54" s="20"/>
-    </row>
-    <row r="55" spans="1:23" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U55" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="V55" s="3" t="s">
+      <c r="L63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="V63" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/quality_review.xlsx
+++ b/quality_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25E3237-F1D2-41B9-B9C0-A49DFBC9D196}"/>
+  <xr:revisionPtr revIDLastSave="615" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CBE522-BBED-4DC0-ABB4-8170EF19E544}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="321">
   <si>
     <t>study_id</t>
   </si>
@@ -284,9 +284,6 @@
     <t>ELS083</t>
   </si>
   <si>
-    <t>Clear exclusion criteria. However no pain measurement whatsoever</t>
-  </si>
-  <si>
     <t>all subjects recruited from same named clinics, demographics provided</t>
   </si>
   <si>
@@ -904,9 +901,6 @@
     <t>OJE134-FM-B</t>
   </si>
   <si>
-    <t>HAM996</t>
-  </si>
-  <si>
     <t>details about recruitment process for all subjects, demographics provided for pain group and informed matched (age, education, socioeconomic and gender) control group - but no data actually provided</t>
   </si>
   <si>
@@ -928,15 +922,6 @@
     <t>meidcation not controlled for (inc glucocortisoids), depression somewhat different</t>
   </si>
   <si>
-    <t>VIT993-A</t>
-  </si>
-  <si>
-    <t>VIT993-B</t>
-  </si>
-  <si>
-    <t>VIT993</t>
-  </si>
-  <si>
     <t>good information provided including on other confounds</t>
   </si>
   <si>
@@ -989,6 +974,33 @@
   </si>
   <si>
     <t>Note that history of depressive symptoms excluded but no information about measures of current mood and how comprehensive that was</t>
+  </si>
+  <si>
+    <t>HAM196</t>
+  </si>
+  <si>
+    <t>VIT197-A</t>
+  </si>
+  <si>
+    <t>VIT197-B</t>
+  </si>
+  <si>
+    <t>CHE063</t>
+  </si>
+  <si>
+    <t>CHE063-A</t>
+  </si>
+  <si>
+    <t>CHE063-B</t>
+  </si>
+  <si>
+    <t>Matched on medication but not education</t>
+  </si>
+  <si>
+    <t>VIT197</t>
+  </si>
+  <si>
+    <t>Clear exclusion criteria. However no pain measurement whatsoever, and the lack of neuropsychiatric exclusions seems a poor fit for this study</t>
   </si>
 </sst>
 </file>
@@ -1446,13 +1458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C9E12-B6CA-44B7-9AF0-AE28A5304A9B}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1484,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1511,19 +1523,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>8</v>
@@ -1535,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>11</v>
@@ -1580,7 +1592,7 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>21</v>
@@ -1600,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>21</v>
@@ -1645,7 +1657,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>21</v>
@@ -1665,16 +1677,16 @@
         <v>20</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>16</v>
@@ -1706,7 +1718,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>21</v>
@@ -1726,16 +1738,16 @@
         <v>20</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>21</v>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>36</v>
@@ -1796,13 +1808,13 @@
         <v>21</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>16</v>
@@ -1832,16 +1844,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>21</v>
@@ -1851,25 +1863,25 @@
         <v>16</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>16</v>
@@ -1901,10 +1913,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>21</v>
@@ -1923,10 +1935,10 @@
         <v>45</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>34</v>
@@ -1964,13 +1976,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="6" t="s">
@@ -1986,10 +1998,10 @@
         <v>50</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>34</v>
@@ -2056,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>16</v>
@@ -2101,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>21</v>
@@ -2123,50 +2135,52 @@
         <v>21</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>21</v>
@@ -2176,47 +2190,47 @@
         <v>16</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="6" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
@@ -2224,79 +2238,77 @@
       <c r="H12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="T12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>21</v>
@@ -2306,23 +2318,23 @@
         <v>16</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>16</v>
@@ -2331,22 +2343,22 @@
     </row>
     <row r="14" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>78</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>21</v>
@@ -2354,9 +2366,7 @@
       <c r="H14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="8"/>
       <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
@@ -2368,54 +2378,58 @@
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>21</v>
@@ -2424,64 +2438,64 @@
         <v>16</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P15" s="8"/>
       <c r="Q15" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="I16" s="8" t="s">
         <v>21</v>
       </c>
@@ -2489,62 +2503,62 @@
         <v>16</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
@@ -2552,64 +2566,64 @@
         <v>16</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="Q17" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="12"/>
     </row>
-    <row r="18" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="8" t="s">
         <v>21</v>
       </c>
@@ -2617,17 +2631,17 @@
         <v>16</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>34</v>
+        <v>229</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="6" t="s">
@@ -2637,13 +2651,13 @@
         <v>21</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>16</v>
@@ -2652,128 +2666,126 @@
     </row>
     <row r="19" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>94</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="6" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>99</v>
+      <c r="D20" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>16</v>
@@ -2782,156 +2794,158 @@
     </row>
     <row r="21" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="13"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="O21" s="6" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="6" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="R21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="T21" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>240</v>
-      </c>
+      <c r="M22" s="13"/>
       <c r="N22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="6" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6" t="s">
@@ -2944,27 +2958,25 @@
         <v>21</v>
       </c>
       <c r="M23" s="13"/>
-      <c r="N23" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>16</v>
@@ -2973,134 +2985,128 @@
     </row>
     <row r="24" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I24" s="8"/>
       <c r="J24" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R24" s="6" t="s">
+      <c r="S24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="V24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="K25" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>234</v>
+        <v>21</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P25" s="8"/>
       <c r="Q25" s="6" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>16</v>
@@ -3109,22 +3115,22 @@
     </row>
     <row r="26" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>21</v>
@@ -3132,101 +3138,111 @@
       <c r="H26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q26" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W26" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>21</v>
+        <v>229</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q27" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>16</v>
@@ -3235,22 +3251,22 @@
     </row>
     <row r="28" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -3258,64 +3274,62 @@
       <c r="H28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="T28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
@@ -3323,70 +3337,62 @@
       <c r="H29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I29" s="8"/>
       <c r="J29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>231</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="13"/>
       <c r="N29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P29" s="8"/>
       <c r="Q29" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -3395,69 +3401,63 @@
         <v>61</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>231</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="13"/>
       <c r="N30" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P30" s="8"/>
       <c r="Q30" s="6" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="18" t="s">
-        <v>146</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>21</v>
@@ -3475,10 +3475,10 @@
         <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>16</v>
@@ -3490,45 +3490,45 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="12" t="s">
+      <c r="V31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>21</v>
@@ -3546,10 +3546,10 @@
         <v>21</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>16</v>
@@ -3561,45 +3561,45 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U32" s="12" t="s">
+      <c r="V32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>21</v>
@@ -3617,10 +3617,10 @@
         <v>21</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>16</v>
@@ -3632,45 +3632,45 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="V33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
@@ -3688,10 +3688,10 @@
         <v>21</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>16</v>
@@ -3703,51 +3703,51 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U34" s="12" t="s">
+      <c r="V34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>16</v>
@@ -3758,55 +3758,61 @@
       <c r="K35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="13"/>
+      <c r="L35" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="N35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W35" s="12"/>
-    </row>
-    <row r="36" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>21</v>
@@ -3823,63 +3829,67 @@
       <c r="K36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="13"/>
+      <c r="L36" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="N36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="H37" s="6" t="s">
-        <v>266</v>
+        <v>151</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>16</v>
@@ -3902,55 +3912,55 @@
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="V37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W37" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="B38" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J38" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>21</v>
@@ -3963,56 +3973,58 @@
         <v>16</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W38" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="W38" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>16</v>
@@ -4028,64 +4040,62 @@
         <v>16</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="W39" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="8"/>
       <c r="J40" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>21</v>
@@ -4095,23 +4105,23 @@
         <v>16</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>16</v>
@@ -4120,31 +4130,31 @@
     </row>
     <row r="41" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>16</v>
@@ -4160,47 +4170,49 @@
         <v>16</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="12"/>
-    </row>
-    <row r="42" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
@@ -4208,12 +4220,14 @@
       <c r="H42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J42" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>21</v>
@@ -4223,57 +4237,59 @@
         <v>16</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="6" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W42" s="12"/>
     </row>
-    <row r="43" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J43" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>21</v>
@@ -4286,47 +4302,47 @@
         <v>16</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="V43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W43" s="12"/>
     </row>
-    <row r="44" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>21</v>
@@ -4334,83 +4350,77 @@
       <c r="H44" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>241</v>
-      </c>
+      <c r="L44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="13"/>
       <c r="N44" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="P44" s="8"/>
       <c r="Q44" s="6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="T44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W44" s="12"/>
     </row>
-    <row r="45" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M45" s="13"/>
@@ -4418,315 +4428,321 @@
         <v>16</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="12"/>
+    </row>
+    <row r="46" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S45" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="V45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="12"/>
-    </row>
-    <row r="46" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P46" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="T46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="12"/>
+    </row>
+    <row r="47" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W46" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="I47" s="8"/>
       <c r="J47" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M47" s="13"/>
       <c r="N47" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="6" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="T47" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W47" s="12"/>
     </row>
-    <row r="48" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="G49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L48" s="16" t="s">
+      <c r="I49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="T48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U48" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="V48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W48" s="12"/>
-    </row>
-    <row r="49" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="P49" s="8"/>
-      <c r="Q49" s="6"/>
+      <c r="Q49" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="R49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="T49" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W49" s="12"/>
     </row>
-    <row r="50" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>21</v>
@@ -4735,35 +4751,33 @@
         <v>16</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>21</v>
+        <v>229</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="P50" s="8"/>
       <c r="Q50" s="6" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="R50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>16</v>
@@ -4772,713 +4786,859 @@
     </row>
     <row r="51" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="L51" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M51" s="13"/>
       <c r="N51" s="6" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="O51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W51" s="12"/>
+    </row>
+    <row r="52" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="13"/>
+      <c r="N52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="53" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="13"/>
+      <c r="N53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="6" t="s">
+      <c r="P53" s="8"/>
+      <c r="Q53" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U53" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="R51" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U51" s="12" t="s">
+      <c r="V53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="V51" s="12" t="s">
+    </row>
+    <row r="54" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W51" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="E54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="L54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="T54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U54" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="14" t="s">
+      <c r="V54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W54" s="12"/>
+    </row>
+    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="T52" s="12" t="s">
+      <c r="K55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S55" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="T55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W55" s="20"/>
+    </row>
+    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U56" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U52" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="V52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W52" s="12"/>
-    </row>
-    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="6" t="s">
+      <c r="F57" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S53" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="T53" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U53" s="20" t="s">
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="V64" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S65" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="V53" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W53" s="20"/>
-    </row>
-    <row r="54" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="V54" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="V55" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R56" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="V56" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="V57" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="V58" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V59" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="V60" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U61" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="V61" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="V62" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" t="s">
-        <v>16</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="S63" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="T63" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U63" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="V63" s="12" t="s">
+      <c r="T65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="V65" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/quality_review.xlsx
+++ b/quality_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CBE522-BBED-4DC0-ABB4-8170EF19E544}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8289C518-E2FB-428C-A6CB-2D0F98CB668A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="16890" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="317">
   <si>
     <t>study_id</t>
   </si>
@@ -211,9 +211,6 @@
     <t>single identified assessor and role. Language variant named</t>
   </si>
   <si>
-    <t>CHE062</t>
-  </si>
-  <si>
     <t>clear distinction and pain frequency</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>Education not reported</t>
-  </si>
-  <si>
-    <t>Matched on medication, however education unknown</t>
   </si>
   <si>
     <t>COE069</t>
@@ -844,9 +838,6 @@
     <t>no - only limited pain data for patients, median and no iqr1 and 3</t>
   </si>
   <si>
-    <t>unclearLY REPORTED</t>
-  </si>
-  <si>
     <t>comparable</t>
   </si>
   <si>
@@ -956,9 +947,6 @@
   </si>
   <si>
     <t>no information about control sample and exclusions</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Diagnosis made with ACR. Note a minimum disease duration (5 years) was specified</t>
@@ -1458,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C9E12-B6CA-44B7-9AF0-AE28A5304A9B}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1496,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1523,19 +1511,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>8</v>
@@ -1547,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>11</v>
@@ -1588,11 +1576,11 @@
         <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>21</v>
@@ -1612,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>21</v>
@@ -1657,7 +1645,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>21</v>
@@ -1677,16 +1665,16 @@
         <v>20</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>16</v>
@@ -1718,7 +1706,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>21</v>
@@ -1738,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>21</v>
@@ -1793,7 +1781,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>36</v>
@@ -1808,13 +1796,13 @@
         <v>21</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>16</v>
@@ -1844,16 +1832,16 @@
         <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>21</v>
@@ -1863,25 +1851,25 @@
         <v>16</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>16</v>
@@ -1913,10 +1901,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>21</v>
@@ -1935,10 +1923,10 @@
         <v>45</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>34</v>
@@ -1976,13 +1964,13 @@
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="6" t="s">
@@ -1998,10 +1986,10 @@
         <v>50</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>34</v>
@@ -2068,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>16</v>
@@ -2083,29 +2071,29 @@
     </row>
     <row r="10" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>21</v>
@@ -2123,25 +2111,23 @@
         <v>16</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P10" s="8"/>
       <c r="Q10" s="6" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>16</v>
@@ -2150,28 +2136,28 @@
     </row>
     <row r="11" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>21</v>
@@ -2190,62 +2176,60 @@
         <v>16</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>21</v>
@@ -2255,57 +2239,57 @@
         <v>16</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>21</v>
@@ -2315,121 +2299,123 @@
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>256</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>69</v>
+      <c r="F14" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="6" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>21</v>
@@ -2438,63 +2424,61 @@
         <v>16</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P15" s="8"/>
-      <c r="Q15" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>21</v>
@@ -2510,55 +2494,57 @@
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="R16" s="6" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
@@ -2566,35 +2552,33 @@
         <v>16</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P17" s="8"/>
       <c r="Q17" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>16</v>
@@ -2603,22 +2587,22 @@
     </row>
     <row r="18" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>16</v>
@@ -2631,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>21</v>
@@ -2641,52 +2625,54 @@
         <v>16</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W18" s="12"/>
     </row>
-    <row r="19" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
@@ -2694,199 +2680,197 @@
         <v>16</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>260</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>34</v>
+        <v>227</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="6" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W20" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="18" t="s">
-        <v>96</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>21</v>
@@ -2895,27 +2879,25 @@
         <v>21</v>
       </c>
       <c r="M22" s="13"/>
-      <c r="N22" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="N22" s="6"/>
       <c r="O22" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>16</v>
@@ -2924,103 +2906,107 @@
     </row>
     <row r="23" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="O23" s="6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="6" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="12"/>
-    </row>
-    <row r="24" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>239</v>
-      </c>
+      <c r="M24" s="13"/>
       <c r="N24" s="6" t="s">
         <v>16</v>
       </c>
@@ -3029,220 +3015,218 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="6" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="Q25" s="6" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W26" s="12"/>
     </row>
     <row r="27" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I27" s="8"/>
       <c r="J27" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P27" s="8"/>
       <c r="Q27" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>16</v>
@@ -3251,35 +3235,35 @@
     </row>
     <row r="28" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>21</v>
@@ -3289,23 +3273,23 @@
         <v>16</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>16</v>
@@ -3314,156 +3298,164 @@
     </row>
     <row r="29" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="6" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="T29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="N30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R30" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="S30" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W30" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>16</v>
@@ -3475,10 +3467,10 @@
         <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>16</v>
@@ -3490,51 +3482,51 @@
         <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>16</v>
@@ -3546,10 +3538,10 @@
         <v>21</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>16</v>
@@ -3561,51 +3553,51 @@
         <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>16</v>
@@ -3617,10 +3609,10 @@
         <v>21</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>16</v>
@@ -3632,51 +3624,51 @@
         <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>16</v>
@@ -3688,10 +3680,10 @@
         <v>21</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>16</v>
@@ -3703,51 +3695,51 @@
         <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>16</v>
@@ -3759,10 +3751,10 @@
         <v>21</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>16</v>
@@ -3774,51 +3766,51 @@
         <v>21</v>
       </c>
       <c r="Q35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>16</v>
@@ -3829,67 +3821,61 @@
       <c r="K36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>230</v>
-      </c>
+      <c r="L36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="13"/>
       <c r="N36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="P36" s="8"/>
       <c r="Q36" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W36" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>16</v>
@@ -3912,26 +3898,28 @@
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W37" s="12"/>
-    </row>
-    <row r="38" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W37" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>153</v>
       </c>
@@ -3942,19 +3930,19 @@
         <v>34</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>16</v>
@@ -3977,57 +3965,55 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W38" s="18" t="s">
-        <v>145</v>
+      <c r="W38" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="H39" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="8"/>
       <c r="J39" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>21</v>
@@ -4040,59 +4026,59 @@
         <v>16</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="12" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W39" s="12"/>
     </row>
     <row r="40" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" s="8"/>
       <c r="J40" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>21</v>
@@ -4105,62 +4091,64 @@
         <v>16</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="6" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T40" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W40" s="12"/>
-    </row>
-    <row r="41" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W40" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>21</v>
@@ -4170,64 +4158,62 @@
         <v>16</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="6" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W41" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>21</v>
@@ -4237,59 +4223,57 @@
         <v>16</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="6" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W42" s="12"/>
     </row>
-    <row r="43" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I43" s="8"/>
       <c r="J43" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>21</v>
@@ -4302,23 +4286,23 @@
         <v>16</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>16</v>
@@ -4327,32 +4311,32 @@
     </row>
     <row r="44" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="G44" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>21</v>
@@ -4365,155 +4349,155 @@
         <v>16</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="T44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="12"/>
+    </row>
+    <row r="45" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="V44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W44" s="12"/>
-    </row>
-    <row r="45" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="B45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="12"/>
+    </row>
+    <row r="46" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="13"/>
+      <c r="N46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="V45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="12"/>
-    </row>
-    <row r="46" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="13" t="s">
+      <c r="P46" s="8"/>
+      <c r="Q46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="R46" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="S46" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>16</v>
@@ -4522,163 +4506,165 @@
     </row>
     <row r="47" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="U47" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="12"/>
-    </row>
-    <row r="48" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="13"/>
       <c r="N48" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="P48" s="8"/>
       <c r="Q48" s="6" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W48" s="12" t="s">
-        <v>201</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="W48" s="12"/>
     </row>
     <row r="49" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="G49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="I49" s="8" t="s">
         <v>21</v>
       </c>
@@ -4686,98 +4672,94 @@
         <v>16</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T49" s="12" t="s">
         <v>21</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="W49" s="12"/>
     </row>
-    <row r="50" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="E50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I50" s="8"/>
       <c r="J50" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="P50" s="8"/>
-      <c r="Q50" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>16</v>
@@ -4786,30 +4768,32 @@
     </row>
     <row r="51" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" s="6" t="s">
         <v>16</v>
       </c>
@@ -4821,24 +4805,28 @@
       </c>
       <c r="M51" s="13"/>
       <c r="N51" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="R51" s="6" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>16</v>
@@ -4847,395 +4835,384 @@
     </row>
     <row r="52" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M52" s="13"/>
       <c r="N52" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P52" s="8"/>
       <c r="Q52" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="T52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W52" s="12"/>
-    </row>
-    <row r="53" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="6" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="L53" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="13"/>
+      <c r="M53" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="N53" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="6" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S53" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W53" s="12"/>
+    </row>
+    <row r="54" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S54" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W54" s="20"/>
+    </row>
+    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="T53" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U53" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="V53" s="12" t="s">
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W53" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="T54" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U54" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="V54" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W54" s="12"/>
-    </row>
-    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="11" t="s">
+      <c r="F56" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S56" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S55" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="T55" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U55" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="V55" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W55" s="20"/>
-    </row>
-    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="R56" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="T56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U56" s="20" t="s">
-        <v>276</v>
+      <c r="U56" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>203</v>
+        <v>285</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U57" s="2" t="s">
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V57" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>289</v>
-      </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>16</v>
@@ -5249,14 +5226,11 @@
       <c r="N58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="R58" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>16</v>
@@ -5270,105 +5244,105 @@
     </row>
     <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S59" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="V59" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>16</v>
@@ -5376,190 +5350,193 @@
     </row>
     <row r="61" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V61" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V62" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="B63" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U63" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="V63" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>308</v>
+        <v>16</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>205</v>
+      <c r="H64" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>34</v>
@@ -5568,77 +5545,21 @@
         <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>309</v>
+        <v>236</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" t="s">
-        <v>16</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S65" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="T65" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U65" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="V65" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/quality_review.xlsx
+++ b/quality_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/2509920f_student_gla_ac_uk/Documents/DClin/Deliverables/Systematic Review/Writeup/DCLIN_SR_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF755F46-328C-4F3E-9BED-656612325F0D}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="8_{BDA90F51-975A-4A3A-9E3C-A0EF38026AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E4B5D5-E76B-4410-AA7B-E50C6C100C28}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{960BDED2-1FF1-4B58-9DE1-81C8DE898166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1448,41 +1448,41 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="26" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="137.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="76.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.453125" style="19" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="95.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="82.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="19" max="19" width="19.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="95.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="82.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>311</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>312</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>69</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>73</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>86</v>
       </c>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>89</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>99</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>103</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>109</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>114</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>121</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>126</v>
       </c>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>131</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>132</v>
       </c>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>137</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>143</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>144</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>280</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>281</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>282</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>145</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>152</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>157</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>167</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>172</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>177</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>182</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>189</v>
       </c>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>193</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>199</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="62" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>204</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>205</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>209</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>215</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>220</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>268</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="W54" s="12"/>
     </row>
-    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>275</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>307</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>284</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>308</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>309</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>296</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>297</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>299</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>305</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>16</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L64" s="13" t="s">
         <v>21</v>
